--- a/static/schedule-courses/Horario 1-2024 - 2821717.xlsx
+++ b/static/schedule-courses/Horario 1-2024 - 2821717.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -172,13 +172,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -470,12 +470,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:G38"/>
+  <dimension ref="A2:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,8 +698,8 @@
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Interactuar en el contexto productivo y social de acuerdo con principios  éticos para la construcción de una cultura de paz 
- NUEVO DERECHOS FUNDAMENTAL 
+          <t>Ética 
+ Juan Mauricio Carmona 
  802</t>
         </is>
       </c>
@@ -741,8 +741,8 @@
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Interactuar en el contexto productivo y social de acuerdo con principios  éticos para la construcción de una cultura de paz 
- NUEVO DERECHOS FUNDAMENTAL 
+          <t>Ética 
+ Juan Mauricio Carmona 
  802</t>
         </is>
       </c>
@@ -1071,22 +1071,22 @@
     <row r="31">
       <c r="A31" s="6" t="inlineStr">
         <is>
-          <t>Física</t>
+          <t>Java (POO+Web)</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
         <is>
-          <t>Aplicación de conocimientos de las ciencias naturales de acuerdo con situaciones del contexto productivo y social.</t>
+          <t>Desarrollar la solución de software de acuerdo con el diseño y metodologías de desarrollo.</t>
         </is>
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>Fisica</t>
+          <t>Construcción del software.</t>
         </is>
       </c>
       <c r="D31" s="6" t="inlineStr">
         <is>
-          <t>Identificar los principios y leyes de la física en la solución de problemas de acuerdo al contexto productivo.</t>
+          <t>Planear actividades de construcción del software de acuerdo con el diseño establecido.</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D32" s="6" t="inlineStr">
         <is>
-          <t>Solucionar problemas asociados con el sector productivo con base en los principios y leyes de la física.</t>
+          <t>Identificar los principios y leyes de la física en la solución de problemas de acuerdo al contexto productivo.</t>
         </is>
       </c>
     </row>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>Verificar las transformaciones físicas de la materia utilizando herramientas.</t>
+          <t>Solucionar problemas asociados con el sector productivo con base en los principios y leyes de la física.</t>
         </is>
       </c>
     </row>
@@ -1152,93 +1152,203 @@
       </c>
       <c r="D34" s="6" t="inlineStr">
         <is>
-          <t>Proponer acciones de mejora en los procesos productivos de acuerdo con los principios leyes de la física.</t>
+          <t>Verificar las transformaciones físicas de la materia utilizando herramientas.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Física</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
         <is>
-          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+          <t>Aplicación de conocimientos de las ciencias naturales de acuerdo con situaciones del contexto productivo y social.</t>
         </is>
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Fisica</t>
         </is>
       </c>
       <c r="D35" s="6" t="inlineStr">
         <is>
-          <t>Identificar modelos matemáticos de acuerdo con los requerimientos del problema planteado en contextos sociales y productivo.</t>
+          <t>Proponer acciones de mejora en los procesos productivos de acuerdo con los principios leyes de la física.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Ética</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
         <is>
-          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+          <t>Enrique Low Murtra-Interactuar en el contexto productivo y social de acuerdo con principios éticos para la construcción de una cultura de paz.</t>
         </is>
       </c>
       <c r="C36" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Etica para la Construcción de una Cultura de Paz</t>
         </is>
       </c>
       <c r="D36" s="6" t="inlineStr">
         <is>
-          <t>Plantear problemas matemáticos a partir de situaciones generadas en el contexto social y productivo.</t>
+          <t>Promover mi dignidad y la del otro a partir de los principios y valores éticos como aporte en la instauración de una cultura de paz.</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Ética</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
         <is>
-          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+          <t>Enrique Low Murtra-Interactuar en el contexto productivo y social de acuerdo con principios éticos para la construcción de una cultura de paz.</t>
         </is>
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>Matemáticas</t>
+          <t>Etica para la Construcción de una Cultura de Paz</t>
         </is>
       </c>
       <c r="D37" s="6" t="inlineStr">
         <is>
-          <t>Resolver problemas matemáticos a partir de situaciones generadas en el contexto social y productivo.</t>
+          <t>Establecer relaciones de crecimiento personal y comunitario a partir del bien común como aporte para el desarrollo social.</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="6" t="inlineStr">
         <is>
+          <t>Ética</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>Enrique Low Murtra-Interactuar en el contexto productivo y social de acuerdo con principios éticos para la construcción de una cultura de paz.</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr">
+        <is>
+          <t>Etica para la Construcción de una Cultura de Paz</t>
+        </is>
+      </c>
+      <c r="D38" s="6" t="inlineStr">
+        <is>
+          <t>Promover el uso racional de los recursos naturales a partir de criterios de sostenibilidad y sustentabilidad ética y normativa vigente.</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Ética</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>Enrique Low Murtra-Interactuar en el contexto productivo y social de acuerdo con principios éticos para la construcción de una cultura de paz.</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>Etica para la Construcción de una Cultura de Paz</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>Contribuir con el fortalecimiento de la cultura de paz a partir de la dignidad humana y las estrategias para la transformación de conflictos.</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="inlineStr">
+        <is>
           <t>Matemáticas</t>
         </is>
       </c>
-      <c r="B38" s="6" t="inlineStr">
+      <c r="B40" s="6" t="inlineStr">
         <is>
           <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
         </is>
       </c>
-      <c r="C38" s="6" t="inlineStr">
+      <c r="C40" s="6" t="inlineStr">
         <is>
           <t>Matemáticas</t>
         </is>
       </c>
-      <c r="D38" s="6" t="inlineStr">
+      <c r="D40" s="6" t="inlineStr">
+        <is>
+          <t>Identificar modelos matemáticos de acuerdo con los requerimientos del problema planteado en contextos sociales y productivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>Plantear problemas matemáticos a partir de situaciones generadas en el contexto social y productivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+        </is>
+      </c>
+      <c r="C42" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="D42" s="6" t="inlineStr">
+        <is>
+          <t>Resolver problemas matemáticos a partir de situaciones generadas en el contexto social y productivo.</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>Razonar cuantitativamente frente a situaciones susceptibles de ser abordadas de manera matemática en contextos laborales, sociales y personales.</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>Matemáticas</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
         <is>
           <t>Proponer acciones de mejora frente a los resultados de los procedimientos matemáticos de acuerdo con el problema planteado.</t>
         </is>
@@ -1246,6 +1356,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>